--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_20_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>766027.5486128186</v>
+        <v>763546.6287873597</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>10.32297663980515</v>
+        <v>43.81584958587126</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>379.9558991545851</v>
       </c>
       <c r="G11" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579947</v>
+        <v>14.65678318579957</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104935</v>
+        <v>82.26761520104947</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>176.9978235524938</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>300.8321118830086</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302867</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>342.8109540913427</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>152.911833594811</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>140.3266745115015</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>68.85017973406026</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719019</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>31.95312999363842</v>
+        <v>62.01200608292098</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443154</v>
+        <v>162.8488787443156</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890429</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367017</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494647</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649685</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763541</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>338.3527451838812</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851353</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>52.31321302988633</v>
+        <v>72.02498669957878</v>
       </c>
       <c r="G14" t="n">
-        <v>384.001579066327</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001941</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579947</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104947</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>176.9978235524938</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>300.8321118830086</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>322.3208221302867</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>342.8109540913427</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948108</v>
+        <v>152.911833594811</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>140.3266745115015</v>
       </c>
       <c r="D16" t="n">
-        <v>57.37529479829971</v>
+        <v>88.44202534651954</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594428</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719017</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271943</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292098</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>162.8488787443156</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890429</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367017</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494647</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649685</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577617</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652887</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7164026375519</v>
+        <v>280.7877584149641</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665429</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477345</v>
+        <v>3.974324134330459</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816016</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245687</v>
+        <v>35.29247858245697</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531831</v>
       </c>
       <c r="V17" t="n">
         <v>253.856975264416</v>
@@ -1910,7 +1910,7 @@
         <v>295.8358174727501</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503347</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762184</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290895</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249339</v>
+        <v>74.72018981249347</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5386794408502</v>
+        <v>72.53867944085029</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721236</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330926</v>
+        <v>92.13052505330934</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860181</v>
+        <v>70.8597317086019</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411914</v>
+        <v>22.45713720411921</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432838</v>
+        <v>15.03686946432845</v>
       </c>
       <c r="S19" t="n">
-        <v>178.2734363206846</v>
+        <v>115.873742125723</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704503</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998939</v>
+        <v>274.7162491948549</v>
       </c>
       <c r="V19" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181091</v>
       </c>
       <c r="W19" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308721</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833183</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463759</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577617</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652887</v>
       </c>
       <c r="D20" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149641</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665429</v>
       </c>
       <c r="F20" t="n">
         <v>332.9807625359925</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477345</v>
+        <v>224.6868053159321</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816015</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245697</v>
       </c>
       <c r="T20" t="n">
         <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531831</v>
       </c>
       <c r="V20" t="n">
         <v>253.856975264416</v>
@@ -2147,7 +2147,7 @@
         <v>295.8358174727501</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.58301571938772</v>
+        <v>312.3426554503347</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762184</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290895</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249339</v>
+        <v>74.72018981249347</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5386794408502</v>
+        <v>72.53867944085029</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721236</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330926</v>
+        <v>92.13052505330934</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860181</v>
+        <v>70.8597317086019</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411914</v>
+        <v>22.45713720411921</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432838</v>
+        <v>15.03686946432845</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257229</v>
+        <v>115.873742125723</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>208.0533602654115</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998939</v>
+        <v>212.316554999894</v>
       </c>
       <c r="V22" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181091</v>
       </c>
       <c r="W22" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308721</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833183</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.0890643413372</v>
+        <v>144.6893701463759</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577617</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652887</v>
       </c>
       <c r="D23" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149641</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665429</v>
       </c>
       <c r="F23" t="n">
         <v>332.9807625359925</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477346</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816016</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245695</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531831</v>
       </c>
       <c r="V23" t="n">
         <v>253.856975264416</v>
@@ -2384,7 +2384,7 @@
         <v>295.8358174727501</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503347</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247762</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762184</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290895</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249339</v>
+        <v>74.72018981249347</v>
       </c>
       <c r="E25" t="n">
-        <v>72.5386794408502</v>
+        <v>72.53867944085029</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721236</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330926</v>
+        <v>92.13052505330934</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860181</v>
+        <v>70.8597317086019</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411913</v>
+        <v>22.45713720411921</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432836</v>
+        <v>15.03686946432845</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257229</v>
+        <v>115.873742125723</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704503</v>
       </c>
       <c r="U25" t="n">
-        <v>274.7162491948561</v>
+        <v>274.7162491948549</v>
       </c>
       <c r="V25" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181091</v>
       </c>
       <c r="W25" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308721</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833183</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463759</v>
       </c>
     </row>
     <row r="26">
@@ -2564,10 +2564,10 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231193</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348616</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C28" t="n">
         <v>120.2716844800353</v>
@@ -2719,16 +2719,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I28" t="n">
         <v>49.37728379124555</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T28" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U28" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W28" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X28" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687285</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958331</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2849,7 +2849,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
@@ -2858,7 +2858,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824775</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,7 +2950,7 @@
         <v>132.8568435633448</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800344</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128494</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C37" t="n">
-        <v>113.1013389531842</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>90.95618068285759</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E40" t="n">
-        <v>99.70874824091626</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333687</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609321</v>
+        <v>170.2318734253255</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3749,13 +3749,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010741</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>99.7087482409155</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092327</v>
+        <v>110.5480262953178</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239898</v>
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3986,13 +3986,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592163</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007081</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
-        <v>153.3104517307974</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846422</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482629</v>
+        <v>89.94326605922051</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H46" t="n">
-        <v>99.3621003269342</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333694</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1464.883581967807</v>
+        <v>1498.714766761813</v>
       </c>
       <c r="C11" t="n">
         <v>1454.456332836691</v>
@@ -5027,64 +5027,64 @@
         <v>1123.382701489664</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597799</v>
+        <v>739.5888639597804</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645001</v>
+        <v>351.7084810645005</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299113</v>
+        <v>81.31694793299123</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218357</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.50722039599</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039936</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573496</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.512310489649</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2533.512310489649</v>
+        <v>2207.935722479257</v>
       </c>
       <c r="X11" t="n">
-        <v>2187.238619488293</v>
+        <v>1861.662031477901</v>
       </c>
       <c r="Y11" t="n">
-        <v>1824.291354772205</v>
+        <v>1498.714766761813</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>448.6751386612226</v>
+        <v>418.3126375609348</v>
       </c>
       <c r="C13" t="n">
-        <v>306.9310229930394</v>
+        <v>276.5685218927514</v>
       </c>
       <c r="D13" t="n">
-        <v>306.9310229930394</v>
+        <v>276.5685218927514</v>
       </c>
       <c r="E13" t="n">
-        <v>186.2099966703701</v>
+        <v>207.0228857977409</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>207.0228857977409</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705055</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5212,37 +5212,37 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R13" t="n">
-        <v>2108.226220176071</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1943.732403262621</v>
+        <v>1913.369902162335</v>
       </c>
       <c r="T13" t="n">
-        <v>1749.157855091871</v>
+        <v>1718.795353991584</v>
       </c>
       <c r="U13" t="n">
-        <v>1487.247055477238</v>
+        <v>1456.884554376951</v>
       </c>
       <c r="V13" t="n">
-        <v>1259.754634531075</v>
+        <v>1229.392133430788</v>
       </c>
       <c r="W13" t="n">
-        <v>997.5295317538385</v>
+        <v>967.1670306535511</v>
       </c>
       <c r="X13" t="n">
-        <v>796.7320481155449</v>
+        <v>766.3695470152574</v>
       </c>
       <c r="Y13" t="n">
-        <v>603.1315362317386</v>
+        <v>572.7690351314509</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1222.405595170597</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C14" t="n">
-        <v>880.6351454899088</v>
+        <v>797.5365442767279</v>
       </c>
       <c r="D14" t="n">
-        <v>880.6351454899088</v>
+        <v>797.5365442767279</v>
       </c>
       <c r="E14" t="n">
-        <v>522.0389601513883</v>
+        <v>797.5365442767279</v>
       </c>
       <c r="F14" t="n">
-        <v>469.1973308282708</v>
+        <v>724.7840324589715</v>
       </c>
       <c r="G14" t="n">
-        <v>81.31694793299097</v>
+        <v>336.9036495636927</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299097</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.507220395991</v>
       </c>
       <c r="T14" t="n">
-        <v>3146.820141253116</v>
+        <v>3063.721540039937</v>
       </c>
       <c r="U14" t="n">
-        <v>2920.481731786676</v>
+        <v>2837.383130573497</v>
       </c>
       <c r="V14" t="n">
-        <v>2616.610911702829</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W14" t="n">
-        <v>2291.034323692439</v>
+        <v>2207.935722479259</v>
       </c>
       <c r="X14" t="n">
-        <v>1944.760632691082</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1581.813367974995</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="15">
@@ -5331,70 +5331,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>645.4448444571352</v>
+        <v>418.3126375609348</v>
       </c>
       <c r="C16" t="n">
-        <v>503.700728788952</v>
+        <v>276.5685218927515</v>
       </c>
       <c r="D16" t="n">
-        <v>445.7458855583459</v>
+        <v>187.233142754853</v>
       </c>
       <c r="E16" t="n">
-        <v>445.7458855583459</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F16" t="n">
-        <v>326.0480053201592</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G16" t="n">
-        <v>185.5372359546019</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
         <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.00187818818</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R16" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S16" t="n">
-        <v>2140.502109058534</v>
+        <v>1913.369902162334</v>
       </c>
       <c r="T16" t="n">
-        <v>1945.927560887784</v>
+        <v>1718.795353991584</v>
       </c>
       <c r="U16" t="n">
-        <v>1684.016761273151</v>
+        <v>1456.884554376952</v>
       </c>
       <c r="V16" t="n">
-        <v>1456.524340326988</v>
+        <v>1229.392133430788</v>
       </c>
       <c r="W16" t="n">
-        <v>1194.299237549751</v>
+        <v>967.1670306535514</v>
       </c>
       <c r="X16" t="n">
-        <v>993.5017539114575</v>
+        <v>766.3695470152575</v>
       </c>
       <c r="Y16" t="n">
-        <v>799.9012420276512</v>
+        <v>572.7690351314509</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.904057542001</v>
+        <v>1518.904057542003</v>
       </c>
       <c r="C17" t="n">
-        <v>1224.583240809386</v>
+        <v>1224.583240809388</v>
       </c>
       <c r="D17" t="n">
-        <v>941.0313189532733</v>
+        <v>940.9592424104344</v>
       </c>
       <c r="E17" t="n">
-        <v>629.8847665628259</v>
+        <v>629.812690019987</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628259</v>
+        <v>293.4684854381763</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156194</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344062</v>
+        <v>3289.956853344064</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936082</v>
+        <v>3158.620805936083</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417715</v>
+        <v>2979.732029417717</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281941</v>
+        <v>2723.310842281943</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219624</v>
+        <v>2445.183887219625</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166341</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.862197398326</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387291</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064588</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,34 +5610,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872289</v>
+        <v>569.1217789872295</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671189</v>
+        <v>474.8272962671194</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625802</v>
+        <v>399.3523570625806</v>
       </c>
       <c r="E19" t="n">
-        <v>326.080963687984</v>
+        <v>326.0809636879843</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978705</v>
+        <v>253.8327163978708</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803866</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604114</v>
+        <v>89.19609340604124</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
         <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1732.031612952116</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.906697729439</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.445531062879</v>
+        <v>1370.44553106288</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.402743064789</v>
+        <v>1190.40274306479</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356254</v>
+        <v>975.627273235626</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454049</v>
+        <v>822.2794225454055</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096717</v>
+        <v>676.1285436096723</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666652</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934037</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535084</v>
+        <v>940.9592424104335</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446365</v>
+        <v>629.8126900199861</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628259</v>
+        <v>293.4684854381754</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156193</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,52 +5750,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3289.956853344063</v>
       </c>
       <c r="T20" t="n">
-        <v>3194.26977420119</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3015.380997682823</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2758.959810547049</v>
+        <v>2723.310842281942</v>
       </c>
       <c r="W20" t="n">
-        <v>2480.832855484732</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X20" t="n">
-        <v>2182.008797431449</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.278478522977</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5832,10 +5832,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,7 +5847,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872289</v>
+        <v>569.1217789872294</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671189</v>
+        <v>474.8272962671194</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625802</v>
+        <v>399.3523570625805</v>
       </c>
       <c r="E22" t="n">
-        <v>326.080963687984</v>
+        <v>326.0809636879843</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978705</v>
+        <v>253.8327163978708</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803866</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604114</v>
+        <v>89.19609340604121</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
         <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.06160708844</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865763</v>
+        <v>1584.906697729439</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.44553106288</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201114</v>
+        <v>1190.40274306479</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.65726737195</v>
+        <v>975.6272732356258</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817295</v>
+        <v>822.2794225454054</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096717</v>
+        <v>676.1285436096722</v>
       </c>
     </row>
     <row r="23">
@@ -5963,58 +5963,58 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056952</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324337</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349359</v>
+        <v>973.0946095349356</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531253</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J23" t="n">
-        <v>429.6625348018609</v>
+        <v>262.2568857815079</v>
       </c>
       <c r="K23" t="n">
-        <v>763.4819084917074</v>
+        <v>596.0762594713544</v>
       </c>
       <c r="L23" t="n">
-        <v>1214.516121740116</v>
+        <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1748.048026412041</v>
+        <v>1917.058658516339</v>
       </c>
       <c r="N23" t="n">
-        <v>2294.826843470823</v>
+        <v>2463.837475575121</v>
       </c>
       <c r="O23" t="n">
-        <v>2797.79931435016</v>
+        <v>2966.809946454458</v>
       </c>
       <c r="P23" t="n">
-        <v>3192.573680707338</v>
+        <v>3361.584312811636</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.811418893065</v>
+        <v>3609.870674567318</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124121</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.238772859013</v>
       </c>
       <c r="T23" t="n">
         <v>3501.902725451032</v>
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714078</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902808</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.0220539290295</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.784598923574</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.250040950459</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.8869407830771</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094466</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J24" t="n">
         <v>167.0550243130998</v>
@@ -6090,10 +6090,10 @@
         <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516155</v>
+        <v>2571.774827516156</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009635</v>
+        <v>2442.336941009636</v>
       </c>
       <c r="T24" t="n">
         <v>2249.693940687491</v>
@@ -6105,7 +6105,7 @@
         <v>1786.473985590164</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861962</v>
+        <v>1532.236628861963</v>
       </c>
       <c r="X24" t="n">
         <v>1324.38512865643</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775278</v>
+        <v>575.9874173775285</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574178</v>
+        <v>481.6929346574184</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528791</v>
+        <v>406.2179954528795</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782829</v>
+        <v>332.9466020782833</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881695</v>
+        <v>260.6983547881698</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706854</v>
+        <v>167.6372183706856</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634011</v>
+        <v>96.06173179634021</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182943</v>
+        <v>322.4875702182944</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667904</v>
+        <v>639.0473686667905</v>
       </c>
       <c r="M25" t="n">
         <v>983.2044142663394</v>
@@ -6169,7 +6169,7 @@
         <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444117</v>
+        <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
         <v>1801.92724547874</v>
@@ -6178,19 +6178,19 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453178</v>
+        <v>1377.311169453179</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455088</v>
+        <v>1197.268381455089</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259242</v>
+        <v>982.492911625925</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357038</v>
+        <v>829.1450609357045</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999706</v>
+        <v>682.9941819999713</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038485</v>
@@ -6212,7 +6212,7 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.90370154678</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,28 +6224,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M26" t="n">
-        <v>2200.835586644152</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N26" t="n">
-        <v>2747.614403702934</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O26" t="n">
-        <v>3250.586874582271</v>
+        <v>3051.64742980896</v>
       </c>
       <c r="P26" t="n">
-        <v>3645.361240939449</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603404</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834459</v>
@@ -6254,22 +6254,22 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
@@ -6306,7 +6306,7 @@
         <v>174.8241863873066</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L27" t="n">
         <v>779.7865456803191</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
         <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697162</v>
@@ -6452,7 +6452,7 @@
         <v>698.9037015467798</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398493</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668918</v>
@@ -6461,28 +6461,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>1092.155029011367</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1543.189242259776</v>
+        <v>1076.411957014866</v>
       </c>
       <c r="M29" t="n">
-        <v>2076.7211469317</v>
+        <v>1609.943861686791</v>
       </c>
       <c r="N29" t="n">
-        <v>2623.499963990483</v>
+        <v>2156.722678745573</v>
       </c>
       <c r="O29" t="n">
-        <v>3126.47243486982</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P29" t="n">
-        <v>3521.246801226998</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3979.725003735986</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834459</v>
@@ -6491,10 +6491,10 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863833</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468335</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668918</v>
@@ -6585,7 +6585,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697994</v>
+        <v>774.1010502698006</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899667</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6661,10 +6661,10 @@
         <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519659</v>
+        <v>908.299882151967</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467804</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>1002.369923216575</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1453.404136464984</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1986.936041136909</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2533.714858195691</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O32" t="n">
-        <v>3036.687329075028</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277657</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834459</v>
@@ -6728,7 +6728,7 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
         <v>3629.895850863832</v>
@@ -6740,10 +6740,10 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6777,13 +6777,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257042</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,16 +6856,16 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960316</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6877,7 +6877,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
         <v>2271.591606277852</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6895,13 +6895,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307333</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912089</v>
@@ -6944,37 +6944,37 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
         <v>2290.538235362621</v>
@@ -7005,16 +7005,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>839.5784050866016</v>
+        <v>444.8926667912275</v>
       </c>
       <c r="C37" t="n">
-        <v>725.3346283662136</v>
+        <v>374.6279184371639</v>
       </c>
       <c r="D37" t="n">
-        <v>673.8894235277213</v>
+        <v>323.1827135986715</v>
       </c>
       <c r="E37" t="n">
-        <v>525.9763299453282</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7120,25 +7120,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1520.753485332019</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V37" t="n">
-        <v>1364.740431699975</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W37" t="n">
-        <v>1173.994696236858</v>
+        <v>877.9803925153279</v>
       </c>
       <c r="X37" t="n">
-        <v>1044.676579912684</v>
+        <v>649.9908416173106</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.5554353429978</v>
+        <v>527.8696970476238</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103807</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.2565860709</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464991</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307349</v>
+        <v>581.8252978307323</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218343</v>
@@ -7172,28 +7172,28 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7202,22 +7202,22 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362622</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218343</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>749.7479478441296</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C40" t="n">
-        <v>679.4831994900661</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D40" t="n">
-        <v>628.0379946515739</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E40" t="n">
-        <v>527.322087337517</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F40" t="n">
-        <v>380.4321398396067</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143257</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218343</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1744.449641246691</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1621.35446039006</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U40" t="n">
-        <v>1430.923028089547</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V40" t="n">
-        <v>1274.909974457503</v>
+        <v>1068.726127978445</v>
       </c>
       <c r="W40" t="n">
-        <v>1084.164238994386</v>
+        <v>779.3089579414846</v>
       </c>
       <c r="X40" t="n">
-        <v>954.8461226702125</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y40" t="n">
-        <v>832.7249781005258</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7385,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464981</v>
+        <v>894.1397680464976</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307339</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7436,25 +7436,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>453.7336441225988</v>
+        <v>543.5641013650713</v>
       </c>
       <c r="C43" t="n">
-        <v>383.4688957685353</v>
+        <v>473.2993530110079</v>
       </c>
       <c r="D43" t="n">
-        <v>332.023690930043</v>
+        <v>323.1827135986722</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159869</v>
+        <v>273.9410545901226</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919199</v>
+        <v>225.7225416660557</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1522.683025816217</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1332.251593515703</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V43" t="n">
-        <v>1077.567105309816</v>
+        <v>1167.397562552289</v>
       </c>
       <c r="W43" t="n">
-        <v>788.1499352728558</v>
+        <v>877.980392515328</v>
       </c>
       <c r="X43" t="n">
-        <v>658.8318189486819</v>
+        <v>748.6622761911542</v>
       </c>
       <c r="Y43" t="n">
-        <v>536.7106743789951</v>
+        <v>626.5411316214676</v>
       </c>
     </row>
     <row r="44">
@@ -7631,43 +7631,43 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F44" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495737</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7685,13 +7685,13 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7716,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>651.0765132702859</v>
+        <v>543.5641013650711</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8117649162224</v>
+        <v>473.2993530110077</v>
       </c>
       <c r="D46" t="n">
-        <v>529.36656007773</v>
+        <v>421.8541481725154</v>
       </c>
       <c r="E46" t="n">
-        <v>480.1249010691803</v>
+        <v>273.9410545901223</v>
       </c>
       <c r="F46" t="n">
-        <v>431.9063881451133</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>264.2035515198322</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7828,28 +7828,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1744.449641246691</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1522.683025816217</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U46" t="n">
-        <v>1332.251593515704</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
-        <v>1176.23853988366</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W46" t="n">
-        <v>985.4928044205429</v>
+        <v>976.6518270891713</v>
       </c>
       <c r="X46" t="n">
-        <v>856.174688096369</v>
+        <v>847.3337107649975</v>
       </c>
       <c r="Y46" t="n">
-        <v>734.0535435266822</v>
+        <v>626.5411316214673</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430632</v>
+        <v>157.2353108430638</v>
       </c>
       <c r="K8" t="n">
-        <v>184.403943372901</v>
+        <v>184.4039433729018</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389607</v>
+        <v>191.4948909389616</v>
       </c>
       <c r="M8" t="n">
-        <v>181.085632533307</v>
+        <v>181.0856325333081</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830244</v>
+        <v>179.3553748830255</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383993</v>
+        <v>182.8301554384003</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586587</v>
+        <v>190.8908035586596</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266126</v>
+        <v>192.0103836266132</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875975</v>
+        <v>112.6562001875978</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372535</v>
+        <v>113.603122337254</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672276</v>
+        <v>105.9629718672283</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253595</v>
+        <v>104.1013981253603</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677678</v>
+        <v>92.30246558677763</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359738</v>
+        <v>106.8829608359745</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798326</v>
+        <v>105.3113487798332</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615459</v>
+        <v>120.8212784615463</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564659</v>
+        <v>116.1755252564663</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085229</v>
+        <v>119.1996074085233</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140779</v>
+        <v>108.4284123140783</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530926</v>
+        <v>120.6694600530929</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662705</v>
+        <v>122.5080856662709</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>339.8144253784353</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>105.0013903333783</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>306.6874953089252</v>
       </c>
       <c r="Q26" t="n">
-        <v>40.02214132148734</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>21.74982042514796</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,16 +10124,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>18.791691456233</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>233.4533865158194</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>131.2335379367257</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.760636329592671e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719373</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C11" t="n">
-        <v>328.0297685440759</v>
+        <v>294.5368955980099</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>50.66363632538256</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358049</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271161</v>
+        <v>69.43227382271174</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>30.05887608928243</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335566</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851354</v>
       </c>
       <c r="F14" t="n">
-        <v>327.6426861246986</v>
+        <v>307.9309124550063</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.687617800194</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579958</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104935</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>64.32003163278617</v>
+        <v>33.25330108456646</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.5009014358049</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719019</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271161</v>
+        <v>69.43227382271174</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292085</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23735,16 +23735,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07135577741212273</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359925</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>333.0521183134041</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>112.3396371318024</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>220.7124811816016</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245687</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.7596397309469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24452,10 +24452,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-4.334310688136611e-13</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.059046810761545e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-6.039613253960852e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>9.308109838457312e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1052330.827981212</v>
+        <v>1052330.827981213</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>869408.3803635923</v>
+        <v>869408.3803635921</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>869408.3803635923</v>
+        <v>869408.3803635922</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>945772.5942649269</v>
+        <v>945772.594264927</v>
       </c>
     </row>
     <row r="8">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>976922.9588907795</v>
+        <v>976922.9588907798</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>471083.8947622971</v>
+        <v>471083.894762297</v>
       </c>
       <c r="C2" t="n">
         <v>471083.894762297</v>
       </c>
       <c r="D2" t="n">
-        <v>471096.7351384191</v>
+        <v>471096.7351384194</v>
       </c>
       <c r="E2" t="n">
+        <v>419485.5005203607</v>
+      </c>
+      <c r="F2" t="n">
         <v>419485.5005203608</v>
-      </c>
-      <c r="F2" t="n">
-        <v>419485.5005203607</v>
       </c>
       <c r="G2" t="n">
         <v>456855.2222167588</v>
       </c>
       <c r="H2" t="n">
-        <v>456855.2222167588</v>
+        <v>456855.2222167589</v>
       </c>
       <c r="I2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719634</v>
       </c>
       <c r="J2" t="n">
         <v>472099.0176719633</v>
       </c>
       <c r="K2" t="n">
-        <v>472099.0176719635</v>
+        <v>472099.0176719633</v>
       </c>
       <c r="L2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="M2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="N2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="O2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="P2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719633</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552248</v>
+        <v>59764.55367552119</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163633</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487382</v>
+        <v>37580.10929487385</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983389</v>
+        <v>22821.46782983375</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179704</v>
+        <v>25409.43302179689</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487402</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927243</v>
+        <v>202168.0999927242</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,25 +26421,25 @@
         <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>430603.4278954652</v>
+        <v>430603.4278954656</v>
       </c>
       <c r="E4" t="n">
-        <v>40024.16194364979</v>
+        <v>40024.16194364968</v>
       </c>
       <c r="F4" t="n">
-        <v>40024.16194364979</v>
+        <v>40024.16194364966</v>
       </c>
       <c r="G4" t="n">
-        <v>77052.32230509196</v>
+        <v>77052.3223050919</v>
       </c>
       <c r="H4" t="n">
-        <v>77052.32230509196</v>
+        <v>77052.3223050919</v>
       </c>
       <c r="I4" t="n">
-        <v>90617.51027754383</v>
+        <v>90617.51027754381</v>
       </c>
       <c r="J4" t="n">
-        <v>88960.95519699583</v>
+        <v>88960.9551969958</v>
       </c>
       <c r="K4" t="n">
         <v>88960.95519699581</v>
@@ -26448,16 +26448,16 @@
         <v>88960.95519699583</v>
       </c>
       <c r="M4" t="n">
+        <v>92183.89891818169</v>
+      </c>
+      <c r="N4" t="n">
+        <v>92183.89891818167</v>
+      </c>
+      <c r="O4" t="n">
         <v>92183.89891818175</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>92183.89891818175</v>
-      </c>
-      <c r="O4" t="n">
-        <v>92183.89891818173</v>
-      </c>
-      <c r="P4" t="n">
-        <v>92183.89891818172</v>
       </c>
     </row>
     <row r="5">
@@ -26473,40 +26473,40 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186635</v>
+        <v>35148.90543186632</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482646</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521488</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="H5" t="n">
         <v>80518.64312521488</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184212</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624987</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14943.69578666807</v>
+        <v>-14948.10936453624</v>
       </c>
       <c r="C6" t="n">
-        <v>-14943.69578666813</v>
+        <v>-14948.10936453624</v>
       </c>
       <c r="D6" t="n">
-        <v>-54420.15186443493</v>
+        <v>-54424.50961457964</v>
       </c>
       <c r="E6" t="n">
-        <v>-786347.1239517479</v>
+        <v>-786575.8783741471</v>
       </c>
       <c r="F6" t="n">
-        <v>302891.8482118845</v>
+        <v>302663.0937894863</v>
       </c>
       <c r="G6" t="n">
-        <v>261704.1474915781</v>
+        <v>261637.8701200338</v>
       </c>
       <c r="H6" t="n">
-        <v>299284.2567864519</v>
+        <v>299217.9794149077</v>
       </c>
       <c r="I6" t="n">
-        <v>272923.5112627434</v>
+        <v>272923.5112627437</v>
       </c>
       <c r="J6" t="n">
-        <v>268350.6877783643</v>
+        <v>268350.6877783645</v>
       </c>
       <c r="K6" t="n">
-        <v>293760.1208001616</v>
+        <v>293760.1208001614</v>
       </c>
       <c r="L6" t="n">
-        <v>256180.0115052874</v>
+        <v>256180.0115052873</v>
       </c>
       <c r="M6" t="n">
-        <v>95228.42145480735</v>
+        <v>95228.42145480729</v>
       </c>
       <c r="N6" t="n">
-        <v>297396.5214475314</v>
+        <v>297396.5214475315</v>
       </c>
       <c r="O6" t="n">
+        <v>297396.5214475312</v>
+      </c>
+      <c r="P6" t="n">
         <v>297396.5214475316</v>
-      </c>
-      <c r="P6" t="n">
-        <v>297396.5214475314</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
+        <v>97.68472022810489</v>
+      </c>
+      <c r="N2" t="n">
+        <v>97.68472022810489</v>
+      </c>
+      <c r="O2" t="n">
         <v>97.68472022810502</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>97.68472022810502</v>
-      </c>
-      <c r="O2" t="n">
-        <v>97.68472022810495</v>
-      </c>
-      <c r="P2" t="n">
-        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790607</v>
+        <v>69.78465283790456</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810303</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951246</v>
+        <v>50.70958360951234</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790607</v>
+        <v>69.78465283790456</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755392</v>
+        <v>1019.992047755394</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.202073660032603e-15</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873739</v>
+        <v>85.8204798787375</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758474</v>
+        <v>97.1145259275844</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959707</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434005</v>
+        <v>336.6017083434006</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104728</v>
+        <v>199.660320410473</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780176</v>
+        <v>132.2465643780179</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036573</v>
+        <v>202.6272343036574</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672109</v>
+        <v>84.2286184667212</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987521</v>
+        <v>90.83829126987543</v>
       </c>
       <c r="S9" t="n">
-        <v>168.895076719229</v>
+        <v>168.8950767192291</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406285</v>
+        <v>161.1083300406286</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241797</v>
+        <v>151.6660875241798</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519088</v>
+        <v>84.46220888519107</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990406</v>
+        <v>7.649035050990722</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317056</v>
+        <v>75.62456067317079</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437878</v>
+        <v>171.6351144437879</v>
       </c>
       <c r="S10" t="n">
         <v>221.8235295207384</v>
       </c>
       <c r="T10" t="n">
-        <v>227.4079043982189</v>
+        <v>227.407904398219</v>
       </c>
       <c r="U10" t="n">
         <v>286.3121652922773</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712635</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="S19" t="n">
-        <v>11.49558901075733</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075795</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571897</v>
+        <v>11.4955890107577</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.49558901075758</v>
+        <v>73.89528320571888</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="U25" t="n">
-        <v>11.49558901075682</v>
+        <v>11.49558901075795</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571888</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C37" t="n">
-        <v>54.14548214544368</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>55.47778196371158</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E40" t="n">
-        <v>46.72521440565291</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810502</v>
+        <v>55.47778196371161</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>46.72521440565367</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371044</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371074</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H46" t="n">
-        <v>45.39291458738658</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413307</v>
+        <v>0.2805413179413246</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366654</v>
+        <v>2.873093772366592</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993316</v>
+        <v>10.81556915993293</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362304</v>
+        <v>23.81059368362252</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207957</v>
+        <v>35.68590767207881</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102658</v>
+        <v>44.27152403102563</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396572</v>
+        <v>49.26060069396465</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356653</v>
+        <v>50.05768871356545</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328742</v>
+        <v>47.2680559832864</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661081</v>
+        <v>40.34219219660994</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.2953062478369</v>
+        <v>30.29530624783624</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313213</v>
+        <v>17.62255356313175</v>
       </c>
       <c r="S8" t="n">
-        <v>6.39283528258808</v>
+        <v>6.392835282587942</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288176</v>
+        <v>1.228069619288149</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530645</v>
+        <v>0.02244330543530597</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.150102838179647</v>
+        <v>0.1501028381796438</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840275</v>
+        <v>1.449677410840244</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693988</v>
+        <v>5.168014384693876</v>
       </c>
       <c r="J9" t="n">
-        <v>14.1814264790692</v>
+        <v>14.18142647906889</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710554</v>
+        <v>24.23831663710502</v>
       </c>
       <c r="L9" t="n">
-        <v>32.5914079126466</v>
+        <v>32.5914079126459</v>
       </c>
       <c r="M9" t="n">
-        <v>38.0326357966588</v>
+        <v>38.03263579665798</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655653</v>
+        <v>39.03924649655568</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847066</v>
+        <v>35.71328360846989</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449768</v>
+        <v>28.66305863449707</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447564</v>
+        <v>19.16049562447523</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767912</v>
+        <v>9.319542882767712</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608792</v>
+        <v>2.788094384608732</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890156</v>
+        <v>0.6050197731890026</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345202</v>
+        <v>0.009875186722344989</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.125841177248683</v>
+        <v>0.1258411772486803</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811019</v>
+        <v>1.118842466810995</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078579</v>
+        <v>3.784387403078497</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481892</v>
+        <v>8.8969712314817</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489245</v>
+        <v>14.62045677489213</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477239</v>
+        <v>18.70915102477199</v>
       </c>
       <c r="M10" t="n">
-        <v>19.7261765390822</v>
+        <v>19.72617653908177</v>
       </c>
       <c r="N10" t="n">
-        <v>19.2571321511553</v>
+        <v>19.25713215115489</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875023</v>
+        <v>17.78707839874984</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287708</v>
+        <v>15.21991838287675</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852382</v>
+        <v>10.53748257852359</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381693</v>
+        <v>5.658276933381571</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233867</v>
+        <v>2.193068516233819</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625547</v>
+        <v>0.5376850300625431</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564538</v>
+        <v>0.00686406421356439</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019271</v>
+        <v>72.49856320019258</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314461</v>
+        <v>232.9678061314459</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546664</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097661</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250201</v>
+        <v>105.31438512502</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019271</v>
+        <v>72.49856320019261</v>
       </c>
       <c r="K16" t="n">
-        <v>232.9678061314461</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O16" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250201</v>
+        <v>105.31438512502</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36364,7 +36364,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>878.7355412086621</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36376,10 +36376,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>355.7956951370978</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
@@ -36610,13 +36610,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>705.449481528297</v>
       </c>
       <c r="Q26" t="n">
-        <v>290.8164461252068</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>477.3399348174801</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36844,16 +36844,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>78.40488999845778</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36996,7 +36996,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>570.6446730712199</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37081,13 +37081,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>529.9955241560975</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222478</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O35" t="n">
         <v>508.0530008882191</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
